--- a/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
+++ b/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.262.54977"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="시트2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
   <si>
     <t>TEST</t>
   </si>
@@ -1457,48 +1461,180 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <color rgb="FFFFFF00"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color rgb="FFFFFF00"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1548,72 +1684,522 @@
         <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1681,70 +2267,76 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-7620</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942975" cy="942975"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2500875" y="1205800"/>
-          <a:ext cx="2392500" cy="2392500"/>
+          <a:off x="0" y="371475"/>
+          <a:ext cx="952500" cy="960120"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="000000">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr wrap="square" lIns="91440" tIns="91440" rIns="91440" bIns="91440" anchor="ctr" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="2500"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2500" kern="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
             <a:t>사이즈 입력 후 클릭</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="2500"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2500" kern="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1943,27 +2535,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE386"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63000000" defaultRowHeight="15.750000" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="10.5"/>
-    <col customWidth="1" min="17" max="17" width="12.5"/>
-    <col customWidth="1" min="18" max="18" width="9.13"/>
-    <col customWidth="1" min="19" max="19" width="9.75"/>
-    <col customWidth="1" min="20" max="20" width="9.13"/>
-    <col customWidth="1" min="27" max="27" width="34.0"/>
-    <col customWidth="1" min="28" max="28" width="15.25"/>
+    <col min="4" max="4" width="17.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="10.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" width="12.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="9.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="20" max="20" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="27" max="27" width="34.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="28" max="28" width="15.29071413" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1984,21 +2576,21 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -2019,19 +2611,19 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2052,4996 +2644,4997 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
         <v>0.9</v>
       </c>
-      <c r="N5" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="8" t="s">
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="9">
         <v>0.8</v>
       </c>
-      <c r="N6" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AA6" s="8" t="s">
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:31">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="I7" s="6">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
         <v>0.9</v>
       </c>
-      <c r="N7" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
         <v>-0.25</v>
       </c>
-      <c r="V7" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="8" t="s">
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
         <v>0.15</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>0.25</v>
       </c>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="8" t="s">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="9">
         <v>0.8</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:31">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="J10" s="6">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9">
         <v>0.8</v>
       </c>
-      <c r="N10" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="8" t="s">
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="8" t="s">
+      <c r="G11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="8" t="s">
+      <c r="G12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="8" t="s">
+      <c r="G13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="C14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="8" t="s">
+      <c r="G14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="G15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:31">
+      <c r="C16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="G16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="9">
         <v>0.01</v>
       </c>
-      <c r="Q16" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="8" t="s">
+      <c r="Q16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="8" t="s">
+      <c r="G17" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="8" t="s">
+      <c r="G18" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27">
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="8" t="s">
+      <c r="G19" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27">
+      <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="8" t="s">
+      <c r="G20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27">
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="8" t="s">
+      <c r="G21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27">
+      <c r="C22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AA22" s="8" t="s">
+      <c r="G22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="3:27">
+      <c r="C23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA23" s="8" t="s">
+      <c r="G23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="8" t="s">
+    <row r="24" spans="3:27">
+      <c r="C24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S24" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="8" t="s">
+      <c r="G24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27">
+      <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="8" t="s">
+      <c r="G25" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27">
+      <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T26" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="8" t="s">
+      <c r="G26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27">
+      <c r="C27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="8" t="s">
+      <c r="G27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27">
+      <c r="C28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="8" t="s">
+      <c r="G28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27">
+      <c r="C29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y29" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="8" t="s">
+      <c r="G29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27">
+      <c r="C30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="8" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="S30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27">
+      <c r="C31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="8" t="s">
+      <c r="G31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27">
+      <c r="C32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="8" t="s">
+      <c r="G32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="C33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="8" t="s">
+      <c r="G33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="C34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA34" s="8" t="s">
+      <c r="G34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA34" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35">
-      <c r="C35" s="8" t="s">
+    <row r="35" spans="2:28">
+      <c r="C35" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35" s="11">
+      <c r="G35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="G36" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="G37" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="G38" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="G41" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="G42" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="G43" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="5" t="s">
+    <row r="36" spans="2:28">
+      <c r="G36" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="G37" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="G38" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="G39" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="G40" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="G41" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="G42" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="G43" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="C44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U44" s="5" t="s">
+      <c r="U44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V44" s="5" t="s">
+      <c r="V44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="5" t="s">
+      <c r="W44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X44" s="5" t="s">
+      <c r="X44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y44" s="5" t="s">
+      <c r="Y44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z44" s="5" t="s">
+      <c r="Z44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA44" s="5" t="s">
+      <c r="AA44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB44" s="5" t="s">
+      <c r="AB44" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:28">
+      <c r="B45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="K45" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L45" s="11">
+      <c r="H45" s="6">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
         <v>0.9</v>
       </c>
-      <c r="N45" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="8" t="s">
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="C46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="8">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="8" t="s">
+      <c r="Q46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="C47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L47" s="11">
+      <c r="H47" s="6">
+        <v>12</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47" s="9">
         <v>0.8</v>
       </c>
-      <c r="N47" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" s="8" t="s">
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="C48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q48" s="8">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="8" t="s">
+      <c r="Q48" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27">
+      <c r="C49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q49" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" s="8" t="s">
+      <c r="Q49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27">
+      <c r="C50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q50" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AA50" s="8" t="s">
+      <c r="Q50" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51">
-      <c r="C51" s="8" t="s">
+    <row r="51" spans="3:27">
+      <c r="C51" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="K51" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L51" s="11">
+      <c r="H51" s="6">
+        <v>5</v>
+      </c>
+      <c r="K51" s="6">
+        <v>3</v>
+      </c>
+      <c r="L51" s="9">
         <v>0.8</v>
       </c>
-      <c r="N51" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AA51" s="8" t="s">
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52">
-      <c r="C52" s="8" t="s">
+    <row r="52" spans="3:27">
+      <c r="C52" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L52" s="11">
+      <c r="H52" s="6">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6">
+        <v>3</v>
+      </c>
+      <c r="L52" s="9">
         <v>0.6</v>
       </c>
-      <c r="N52" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AA52" s="8" t="s">
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53">
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="3:27">
+      <c r="C53" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AA53" s="8" t="s">
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54">
-      <c r="C54" s="8" t="s">
+    <row r="54" spans="3:27">
+      <c r="C54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="55">
-      <c r="C55" s="8" t="s">
+    <row r="55" spans="3:27">
+      <c r="C55" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="9">
         <v>0.1</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="C56" s="8" t="s">
+    <row r="56" spans="3:27">
+      <c r="C56" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="9">
         <v>0.05</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="9">
         <v>0.1</v>
       </c>
-      <c r="Q56" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="8" t="s">
+      <c r="Q56" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27">
+      <c r="C57" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="L57" s="11">
+      <c r="I57" s="6">
+        <v>12</v>
+      </c>
+      <c r="L57" s="9">
         <v>0.9</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="9">
         <v>-0.25</v>
       </c>
-      <c r="V57" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AA57" s="8" t="s">
+      <c r="V57" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58">
-      <c r="C58" s="8" t="s">
+    <row r="58" spans="3:27">
+      <c r="C58" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="L58" s="11">
+      <c r="I58" s="6">
+        <v>10</v>
+      </c>
+      <c r="L58" s="9">
         <v>0.9</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="9">
         <v>-0.1</v>
       </c>
-      <c r="V58" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="8" t="s">
+      <c r="V58" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27">
+      <c r="C59" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S59" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="8" t="s">
+      <c r="S59" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27">
+      <c r="C60" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA60" s="8" t="s">
+      <c r="I60" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61">
-      <c r="C61" s="8" t="s">
+    <row r="61" spans="3:27">
+      <c r="C61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Z61" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="8" t="s">
+      <c r="Q61" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27">
+      <c r="C62" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q62" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="AA62" s="8" t="s">
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63">
-      <c r="C63" s="8" t="s">
+    <row r="63" spans="3:27">
+      <c r="C63" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Z63" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="8" t="s">
+      <c r="Z63" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27">
+      <c r="C64" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="8" t="s">
+      <c r="I64" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27">
+      <c r="C65" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="R65" s="8">
-        <v>-5.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" s="8" t="s">
+      <c r="I65" s="6">
+        <v>15</v>
+      </c>
+      <c r="R65" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27">
+      <c r="C66" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y66" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Z66" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="8" t="s">
+      <c r="Y66" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27">
+      <c r="C67" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="K67" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="8" t="s">
+      <c r="H67" s="6">
+        <v>5</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27">
+      <c r="C68" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="K68" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L68" s="11">
+      <c r="H68" s="6">
+        <v>3</v>
+      </c>
+      <c r="K68" s="6">
+        <v>3</v>
+      </c>
+      <c r="L68" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="69">
-      <c r="C69" s="8" t="s">
+    <row r="69" spans="3:27">
+      <c r="C69" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H69" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="K69" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L69" s="11">
+      <c r="H69" s="6">
+        <v>4</v>
+      </c>
+      <c r="K69" s="6">
+        <v>3</v>
+      </c>
+      <c r="L69" s="9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="70">
-      <c r="C70" s="8" t="s">
+    <row r="70" spans="3:27">
+      <c r="C70" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" s="8" t="s">
+      <c r="H70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27">
+      <c r="C71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AA71" s="8" t="s">
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72">
-      <c r="C72" s="8" t="s">
+    <row r="72" spans="3:27">
+      <c r="C72" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H72" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AA72" s="8" t="s">
+      <c r="H72" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73">
-      <c r="C73" s="8" t="s">
+    <row r="73" spans="3:27">
+      <c r="C73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA73" s="8" t="s">
+      <c r="AA73" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74">
-      <c r="C74" s="8" t="s">
+    <row r="74" spans="3:27">
+      <c r="C74" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N74" s="9">
         <v>0.1</v>
       </c>
-      <c r="AA74" s="8" t="s">
+      <c r="AA74" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75">
-      <c r="C75" s="8" t="s">
+    <row r="75" spans="3:27">
+      <c r="C75" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J75" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="K75" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L75" s="11">
+      <c r="J75" s="6">
+        <v>20</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2</v>
+      </c>
+      <c r="L75" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="76">
-      <c r="C76" s="8" t="s">
+    <row r="76" spans="3:27">
+      <c r="C76" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q76" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" s="8" t="s">
+      <c r="Q76" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27">
+      <c r="C77" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="W77" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA77" s="8" t="s">
+      <c r="W77" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA77" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78">
-      <c r="C78" s="8" t="s">
+    <row r="78" spans="3:27">
+      <c r="C78" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T78" s="8">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" s="8" t="s">
+      <c r="T78" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27">
+      <c r="C79" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T79" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AA79" s="8" t="s">
+      <c r="T79" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80">
-      <c r="C80" s="8" t="s">
+    <row r="80" spans="3:27">
+      <c r="C80" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T80" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" s="8" t="s">
+      <c r="T80" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27">
+      <c r="C81" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T81" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AA81" s="8" t="s">
+      <c r="T81" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA81" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="82">
-      <c r="G82" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="G83" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="G84" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="G85" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="G86" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="G87" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="G88" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="G89" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="G90" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="G91" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="G92" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="G93" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="G94" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="G95" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="G96" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="G97" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="G98" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="G99" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="G100" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="G101" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="G102" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5" t="s">
+    <row r="82" spans="3:27">
+      <c r="G82" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27">
+      <c r="G83" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27">
+      <c r="G84" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27">
+      <c r="G85" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27">
+      <c r="G86" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27">
+      <c r="G87" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27">
+      <c r="G88" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27">
+      <c r="G89" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27">
+      <c r="G90" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="3:27">
+      <c r="G91" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27">
+      <c r="G92" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27">
+      <c r="G93" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27">
+      <c r="G94" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27">
+      <c r="G95" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="3:27">
+      <c r="G96" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28">
+      <c r="G97" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28">
+      <c r="G98" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28">
+      <c r="G99" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
+      <c r="G100" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
+      <c r="G101" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="G102" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="I103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="J103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K103" s="5" t="s">
+      <c r="K103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L103" s="6" t="s">
+      <c r="L103" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M103" s="6" t="s">
+      <c r="M103" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N103" s="6" t="s">
+      <c r="N103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P103" s="6" t="s">
+      <c r="P103" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q103" s="5" t="s">
+      <c r="Q103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R103" s="5" t="s">
+      <c r="R103" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S103" s="5" t="s">
+      <c r="S103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T103" s="5" t="s">
+      <c r="T103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U103" s="5" t="s">
+      <c r="U103" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V103" s="5" t="s">
+      <c r="V103" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W103" s="5" t="s">
+      <c r="W103" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X103" s="5" t="s">
+      <c r="X103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y103" s="5" t="s">
+      <c r="Y103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z103" s="5" t="s">
+      <c r="Z103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA103" s="5" t="s">
+      <c r="AA103" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB103" s="5" t="s">
+      <c r="AB103" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104">
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="2:28">
+      <c r="B104" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G104" s="16" t="s">
+      <c r="G104" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H104" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA104" s="8" t="s">
+      <c r="H104" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA104" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="105">
-      <c r="C105" s="8" t="s">
+    <row r="105" spans="2:28">
+      <c r="C105" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G105" s="16" t="s">
+      <c r="G105" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O105" s="11">
+      <c r="O105" s="9">
         <v>0.25</v>
       </c>
-      <c r="P105" s="11">
+      <c r="P105" s="9">
         <v>0.25</v>
       </c>
-      <c r="Q105" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" s="8" t="s">
+      <c r="Q105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28">
+      <c r="C106" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O106" s="11">
+      <c r="O106" s="9">
         <v>0.5</v>
       </c>
-      <c r="P106" s="11">
+      <c r="P106" s="9">
         <v>0.25</v>
       </c>
-      <c r="U106" s="8" t="s">
+      <c r="U106" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="107">
-      <c r="C107" s="8" t="s">
+    <row r="107" spans="2:28">
+      <c r="C107" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G107" s="16" t="s">
+      <c r="G107" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R107" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="C108" s="8" t="s">
+      <c r="R107" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28">
+      <c r="C108" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q108" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="R108" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="C109" s="8" t="s">
+      <c r="Q108" s="6">
+        <v>5</v>
+      </c>
+      <c r="R108" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28">
+      <c r="C109" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G109" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H109" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA109" s="8" t="s">
+      <c r="H109" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA109" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110">
-      <c r="C110" s="8" t="s">
+    <row r="110" spans="2:28">
+      <c r="C110" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G110" s="16" t="s">
+      <c r="G110" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H110" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="K110" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L110" s="11">
+      <c r="H110" s="6">
+        <v>25</v>
+      </c>
+      <c r="K110" s="6">
+        <v>2</v>
+      </c>
+      <c r="L110" s="9">
         <v>0.9</v>
       </c>
-      <c r="N110" s="11">
+      <c r="N110" s="9">
         <v>0.1</v>
       </c>
-      <c r="O110" s="11">
+      <c r="O110" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="111">
-      <c r="C111" s="8" t="s">
+    <row r="111" spans="2:28">
+      <c r="C111" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G111" s="16" t="s">
+      <c r="G111" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112">
-      <c r="C112" s="8" t="s">
+    <row r="112" spans="2:28">
+      <c r="C112" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G112" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H112" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="K112" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L112" s="11">
+      <c r="H112" s="6">
+        <v>12</v>
+      </c>
+      <c r="K112" s="6">
+        <v>3</v>
+      </c>
+      <c r="L112" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA112" s="8" t="s">
+      <c r="AA112" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113">
-      <c r="C113" s="8" t="s">
+    <row r="113" spans="3:27">
+      <c r="C113" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G113" s="16" t="s">
+      <c r="G113" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H113" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA113" s="8" t="s">
+      <c r="H113" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA113" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114">
-      <c r="C114" s="8" t="s">
+    <row r="114" spans="3:27">
+      <c r="C114" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G114" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA114" s="8" t="s">
+      <c r="H114" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA114" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="115">
-      <c r="C115" s="8" t="s">
+    <row r="115" spans="3:27">
+      <c r="C115" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H115" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA115" s="8" t="s">
+      <c r="H115" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA115" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="116">
-      <c r="C116" s="8" t="s">
+    <row r="116" spans="3:27">
+      <c r="C116" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G116" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O116" s="11">
+      <c r="O116" s="9">
         <v>0.3</v>
       </c>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="C117" s="8" t="s">
+      <c r="P116" s="9"/>
+      <c r="Q116" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:27">
+      <c r="C117" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Y117" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AA117" s="8" t="s">
+      <c r="Y117" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA117" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118">
-      <c r="C118" s="8" t="s">
+    <row r="118" spans="3:27">
+      <c r="C118" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H118" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="O118" s="11">
+      <c r="H118" s="6">
+        <v>3</v>
+      </c>
+      <c r="O118" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="119">
-      <c r="C119" s="8" t="s">
+    <row r="119" spans="3:27">
+      <c r="C119" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H119" s="8">
-        <v>18.0</v>
-      </c>
-      <c r="K119" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L119" s="11">
+      <c r="H119" s="6">
+        <v>18</v>
+      </c>
+      <c r="K119" s="6">
+        <v>3</v>
+      </c>
+      <c r="L119" s="9">
         <v>0.6</v>
       </c>
-      <c r="AA119" s="8" t="s">
+      <c r="AA119" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120">
-      <c r="C120" s="8" t="s">
+    <row r="120" spans="3:27">
+      <c r="C120" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G120" s="16" t="s">
+      <c r="G120" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I120" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AA120" s="8" t="s">
+      <c r="I120" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA120" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="121">
-      <c r="C121" s="8" t="s">
+    <row r="121" spans="3:27">
+      <c r="C121" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AA121" s="8" t="s">
+      <c r="AA121" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="122">
-      <c r="C122" s="8" t="s">
+    <row r="122" spans="3:27">
+      <c r="C122" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I122" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="K122" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L122" s="11">
+      <c r="I122" s="6">
+        <v>25</v>
+      </c>
+      <c r="K122" s="6">
+        <v>3</v>
+      </c>
+      <c r="L122" s="9">
         <v>0.9</v>
       </c>
-      <c r="O122" s="11">
+      <c r="O122" s="9">
         <v>-0.25</v>
       </c>
-      <c r="V122" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="AA122" s="8" t="s">
+      <c r="V122" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA122" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="123">
-      <c r="C123" s="8" t="s">
+    <row r="123" spans="3:27">
+      <c r="C123" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I123" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="K123" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L123" s="11">
+      <c r="I123" s="6">
+        <v>20</v>
+      </c>
+      <c r="K123" s="6">
+        <v>3</v>
+      </c>
+      <c r="L123" s="9">
         <v>0.9</v>
       </c>
-      <c r="O123" s="11">
+      <c r="O123" s="9">
         <v>-0.1</v>
       </c>
-      <c r="V123" s="8">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="C124" s="8" t="s">
+      <c r="V123" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="3:27">
+      <c r="C124" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G124" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125">
-      <c r="C125" s="8" t="s">
+    <row r="125" spans="3:27">
+      <c r="C125" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AA125" s="8" t="s">
+      <c r="AA125" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="126">
-      <c r="C126" s="8" t="s">
+    <row r="126" spans="3:27">
+      <c r="C126" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AA126" s="8" t="s">
+      <c r="AA126" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="127">
-      <c r="C127" s="8" t="s">
+    <row r="127" spans="3:27">
+      <c r="C127" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="128">
-      <c r="C128" s="8" t="s">
+    <row r="128" spans="3:27">
+      <c r="C128" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G128" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H128" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="K128" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L128" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="C129" s="8" t="s">
+      <c r="H128" s="6">
+        <v>10</v>
+      </c>
+      <c r="K128" s="6">
+        <v>0</v>
+      </c>
+      <c r="L128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="3:27">
+      <c r="C129" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G129" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H129" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="K129" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L129" s="11">
+      <c r="H129" s="6">
+        <v>5</v>
+      </c>
+      <c r="K129" s="6">
+        <v>3</v>
+      </c>
+      <c r="L129" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="130">
-      <c r="C130" s="8" t="s">
+    <row r="130" spans="3:27">
+      <c r="C130" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G130" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H130" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="K130" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L130" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="C131" s="8" t="s">
+      <c r="H130" s="6">
+        <v>8</v>
+      </c>
+      <c r="K130" s="6">
+        <v>0</v>
+      </c>
+      <c r="L130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="3:27">
+      <c r="C131" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H131" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="K131" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L131" s="11">
+      <c r="H131" s="6">
+        <v>6</v>
+      </c>
+      <c r="K131" s="6">
+        <v>3</v>
+      </c>
+      <c r="L131" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="132">
-      <c r="C132" s="8" t="s">
+    <row r="132" spans="3:27">
+      <c r="C132" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G132" s="16" t="s">
+      <c r="G132" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA132" s="8" t="s">
+      <c r="AA132" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="133">
-      <c r="C133" s="8" t="s">
+    <row r="133" spans="3:27">
+      <c r="C133" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G133" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="134">
-      <c r="C134" s="8" t="s">
+    <row r="134" spans="3:27">
+      <c r="C134" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G134" s="16" t="s">
+      <c r="G134" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="135">
-      <c r="C135" s="8" t="s">
+    <row r="135" spans="3:27">
+      <c r="C135" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="136">
-      <c r="C136" s="8" t="s">
+    <row r="136" spans="3:27">
+      <c r="C136" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G136" s="16" t="s">
+      <c r="G136" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="137">
-      <c r="C137" s="8" t="s">
+    <row r="137" spans="3:27">
+      <c r="C137" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA137" s="8" t="s">
+      <c r="AA137" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138">
-      <c r="C138" s="8" t="s">
+    <row r="138" spans="3:27">
+      <c r="C138" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H138" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AA138" s="8" t="s">
+      <c r="H138" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA138" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="139">
-      <c r="C139" s="8" t="s">
+    <row r="139" spans="3:27">
+      <c r="C139" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G139" s="16" t="s">
+      <c r="G139" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA139" s="8" t="s">
+      <c r="AA139" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="140">
-      <c r="C140" s="8" t="s">
+    <row r="140" spans="3:27">
+      <c r="C140" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G140" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA140" s="8" t="s">
+      <c r="AA140" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="141">
-      <c r="C141" s="8" t="s">
+    <row r="141" spans="3:27">
+      <c r="C141" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA141" s="8" t="s">
+      <c r="AA141" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="142">
-      <c r="C142" s="8" t="s">
+    <row r="142" spans="3:27">
+      <c r="C142" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G142" s="16" t="s">
+      <c r="G142" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H142" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="AA142" s="8" t="s">
+      <c r="H142" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA142" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="143">
-      <c r="C143" s="8" t="s">
+    <row r="143" spans="3:27">
+      <c r="C143" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G143" s="16" t="s">
+      <c r="G143" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J143" s="8"/>
-      <c r="AA143" s="8" t="s">
+      <c r="J143" s="6"/>
+      <c r="AA143" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="144">
-      <c r="C144" s="8" t="s">
+    <row r="144" spans="3:27">
+      <c r="C144" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G144" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J144" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="K144" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L144" s="11">
+      <c r="J144" s="6">
+        <v>30</v>
+      </c>
+      <c r="K144" s="6">
+        <v>2</v>
+      </c>
+      <c r="L144" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="145">
-      <c r="C145" s="8" t="s">
+    <row r="145" spans="3:27">
+      <c r="C145" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G145" s="16" t="s">
+      <c r="G145" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M145" s="11">
+      <c r="M145" s="9">
         <v>0.25</v>
       </c>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11">
+      <c r="O145" s="9"/>
+      <c r="P145" s="9">
         <v>0.25</v>
       </c>
-      <c r="Q145" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="C146" s="8" t="s">
+      <c r="Q145" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="3:27">
+      <c r="C146" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G146" s="16" t="s">
+      <c r="G146" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J146" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="K146" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L146" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="C147" s="8" t="s">
+      <c r="J146" s="6">
+        <v>20</v>
+      </c>
+      <c r="K146" s="6">
+        <v>2</v>
+      </c>
+      <c r="L146" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:27">
+      <c r="C147" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T147" s="8">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="C148" s="8" t="s">
+      <c r="T147" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="3:27">
+      <c r="C148" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G148" s="16" t="s">
+      <c r="G148" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T148" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AA148" s="8" t="s">
+      <c r="T148" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA148" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="149">
-      <c r="C149" s="8" t="s">
+    <row r="149" spans="3:27">
+      <c r="C149" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G149" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T149" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="G150" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="G151" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="G152" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="G153" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="G154" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="G155" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="G156" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="G157" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="G158" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="G159" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="G160" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="G161" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="G162" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="G163" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="G164" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="G165" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="G166" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="G167" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="G168" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="G169" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="G170" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="G171" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="G172" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="G173" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="G174" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="G175" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="G176" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="G177" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="G178" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="G179" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="G180" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="G181" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="G182" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="G183" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="G184" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="G185" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="G186" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="G187" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="G188" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="G189" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="G190" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="G191" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="G192" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="G193" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="C194" s="5" t="s">
+      <c r="T149" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="3:27">
+      <c r="G150" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="3:27">
+      <c r="G151" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="3:27">
+      <c r="G152" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="3:27">
+      <c r="G153" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="3:27">
+      <c r="G154" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="3:27">
+      <c r="G155" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="3:27">
+      <c r="G156" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="3:27">
+      <c r="G157" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="3:27">
+      <c r="G158" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="3:27">
+      <c r="G159" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="3:27">
+      <c r="G160" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7">
+      <c r="G161" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7">
+      <c r="G162" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7">
+      <c r="G164" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7">
+      <c r="G165" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7">
+      <c r="G166" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7">
+      <c r="G167" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7">
+      <c r="G168" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7">
+      <c r="G169" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7">
+      <c r="G170" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7">
+      <c r="G171" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7">
+      <c r="G172" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7">
+      <c r="G173" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7">
+      <c r="G174" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7">
+      <c r="G176" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7">
+      <c r="G177" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7">
+      <c r="G178" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7">
+      <c r="G179" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7">
+      <c r="G180" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7">
+      <c r="G181" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7">
+      <c r="G182" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7">
+      <c r="G183" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7">
+      <c r="G184" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7">
+      <c r="G185" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7">
+      <c r="G186" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7">
+      <c r="G187" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7">
+      <c r="G188" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7">
+      <c r="G189" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7">
+      <c r="G190" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7">
+      <c r="G191" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7">
+      <c r="G192" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28">
+      <c r="G193" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28">
+      <c r="C194" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J194" s="5" t="s">
+      <c r="J194" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K194" s="5" t="s">
+      <c r="K194" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L194" s="6" t="s">
+      <c r="L194" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M194" s="6" t="s">
+      <c r="M194" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N194" s="6" t="s">
+      <c r="N194" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O194" s="5" t="s">
+      <c r="O194" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P194" s="6" t="s">
+      <c r="P194" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q194" s="5" t="s">
+      <c r="Q194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R194" s="5" t="s">
+      <c r="R194" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S194" s="5" t="s">
+      <c r="S194" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T194" s="5" t="s">
+      <c r="T194" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U194" s="5" t="s">
+      <c r="U194" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V194" s="5" t="s">
+      <c r="V194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W194" s="5" t="s">
+      <c r="W194" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X194" s="5" t="s">
+      <c r="X194" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y194" s="5" t="s">
+      <c r="Y194" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z194" s="5" t="s">
+      <c r="Z194" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA194" s="5" t="s">
+      <c r="AA194" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB194" s="5" t="s">
+      <c r="AB194" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="195">
-      <c r="B195" s="9" t="s">
+    <row r="195" spans="2:28">
+      <c r="B195" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="E195" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G195" s="16" t="s">
+      <c r="G195" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H195" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="K195" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L195" s="11">
+      <c r="H195" s="6">
+        <v>35</v>
+      </c>
+      <c r="K195" s="6">
+        <v>1</v>
+      </c>
+      <c r="L195" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA195" s="8" t="s">
+      <c r="AA195" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="196">
-      <c r="C196" s="8" t="s">
+    <row r="196" spans="2:28">
+      <c r="C196" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G196" s="16" t="s">
+      <c r="G196" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Y196" s="8"/>
-      <c r="AA196" s="8" t="s">
+      <c r="Y196" s="6"/>
+      <c r="AA196" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="197">
-      <c r="C197" s="8" t="s">
+    <row r="197" spans="2:28">
+      <c r="C197" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E197" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G197" s="16" t="s">
+      <c r="G197" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q197" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="AA197" s="8" t="s">
+      <c r="Q197" s="6">
+        <v>20</v>
+      </c>
+      <c r="AA197" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="198">
-      <c r="C198" s="8" t="s">
+    <row r="198" spans="2:28">
+      <c r="C198" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E198" s="8" t="s">
+      <c r="E198" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G198" s="16" t="s">
+      <c r="G198" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P198" s="11">
+      <c r="P198" s="9">
         <v>0.15</v>
       </c>
-      <c r="Q198" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="C199" s="8" t="s">
+      <c r="Q198" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28">
+      <c r="C199" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G199" s="16" t="s">
+      <c r="G199" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O199" s="11">
+      <c r="O199" s="9">
         <v>0.25</v>
       </c>
-      <c r="P199" s="11">
+      <c r="P199" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q199" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="C200" s="8" t="s">
+      <c r="Q199" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28">
+      <c r="C200" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="E200" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G200" s="16" t="s">
+      <c r="G200" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H200" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AA200" s="8" t="s">
+      <c r="H200" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA200" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="201">
-      <c r="C201" s="8" t="s">
+    <row r="201" spans="2:28">
+      <c r="C201" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G201" s="16" t="s">
+      <c r="G201" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O201" s="11">
+      <c r="O201" s="9">
         <v>0.2</v>
       </c>
-      <c r="AA201" s="8" t="s">
+      <c r="AA201" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="202">
-      <c r="C202" s="8" t="s">
+    <row r="202" spans="2:28">
+      <c r="C202" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G202" s="16" t="s">
+      <c r="G202" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H202" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="K202" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L202" s="11">
+      <c r="H202" s="6">
+        <v>25</v>
+      </c>
+      <c r="K202" s="6">
+        <v>3</v>
+      </c>
+      <c r="L202" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA202" s="8" t="s">
+      <c r="AA202" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="203">
-      <c r="C203" s="8" t="s">
+    <row r="203" spans="2:28">
+      <c r="C203" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E203" s="8" t="s">
+      <c r="E203" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G203" s="16" t="s">
+      <c r="G203" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O203" s="11">
+      <c r="O203" s="9">
         <v>0.15</v>
       </c>
-      <c r="P203" s="11">
+      <c r="P203" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="204">
-      <c r="C204" s="8" t="s">
+    <row r="204" spans="2:28">
+      <c r="C204" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E204" s="8" t="s">
+      <c r="E204" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G204" s="16" t="s">
+      <c r="G204" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I204" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="K204" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L204" s="11">
+      <c r="I204" s="6">
+        <v>40</v>
+      </c>
+      <c r="K204" s="6">
+        <v>3</v>
+      </c>
+      <c r="L204" s="9">
         <v>0.9</v>
       </c>
-      <c r="O204" s="11">
+      <c r="O204" s="9">
         <v>-0.25</v>
       </c>
-      <c r="V204" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="AA204" s="8" t="s">
+      <c r="V204" s="6">
+        <v>10</v>
+      </c>
+      <c r="AA204" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="205">
-      <c r="C205" s="8" t="s">
+    <row r="205" spans="2:28">
+      <c r="C205" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G205" s="16" t="s">
+      <c r="G205" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O205" s="11"/>
-    </row>
-    <row r="206">
-      <c r="C206" s="8" t="s">
+      <c r="O205" s="9"/>
+    </row>
+    <row r="206" spans="2:28">
+      <c r="C206" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E206" s="8" t="s">
+      <c r="E206" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G206" s="16" t="s">
+      <c r="G206" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V206" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="AA206" s="8" t="s">
+      <c r="V206" s="6">
+        <v>10</v>
+      </c>
+      <c r="AA206" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="207">
-      <c r="C207" s="8" t="s">
+    <row r="207" spans="2:28">
+      <c r="C207" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G207" s="16" t="s">
+      <c r="G207" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Z207" s="8">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="C208" s="8" t="s">
+      <c r="Z207" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="2:28">
+      <c r="C208" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G208" s="16" t="s">
+      <c r="G208" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S208" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="C209" s="8" t="s">
+      <c r="S208" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="3:27">
+      <c r="C209" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G209" s="16" t="s">
+      <c r="G209" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X209" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AA209" s="8" t="s">
+      <c r="X209" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA209" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="210">
-      <c r="C210" s="8" t="s">
+    <row r="210" spans="3:27">
+      <c r="C210" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G210" s="16" t="s">
+      <c r="G210" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q210" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="AA210" s="8" t="s">
+      <c r="Q210" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA210" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="211">
-      <c r="C211" s="8" t="s">
+    <row r="211" spans="3:27">
+      <c r="C211" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G211" s="16" t="s">
+      <c r="G211" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Z211" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="8" t="s">
+      <c r="Z211" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="3:27">
+      <c r="C212" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G212" s="16" t="s">
+      <c r="G212" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="213">
-      <c r="C213" s="8" t="s">
+    <row r="213" spans="3:27">
+      <c r="C213" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E213" s="8" t="s">
+      <c r="E213" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G213" s="16" t="s">
+      <c r="G213" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H213" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="K213" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L213" s="11">
+      <c r="H213" s="6">
+        <v>9</v>
+      </c>
+      <c r="K213" s="6">
+        <v>3</v>
+      </c>
+      <c r="L213" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA213" s="8" t="s">
+      <c r="AA213" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="214">
-      <c r="C214" s="8" t="s">
+    <row r="214" spans="3:27">
+      <c r="C214" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G214" s="16" t="s">
+      <c r="G214" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H214" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="K214" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L214" s="11">
+      <c r="H214" s="6">
+        <v>12</v>
+      </c>
+      <c r="K214" s="6">
+        <v>3</v>
+      </c>
+      <c r="L214" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="215">
-      <c r="C215" s="8" t="s">
+    <row r="215" spans="3:27">
+      <c r="C215" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G215" s="16" t="s">
+      <c r="G215" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="216">
-      <c r="C216" s="8" t="s">
+    <row r="216" spans="3:27">
+      <c r="C216" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D216" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E216" s="8" t="s">
+      <c r="E216" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G216" s="16" t="s">
+      <c r="G216" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="217">
-      <c r="C217" s="8" t="s">
+    <row r="217" spans="3:27">
+      <c r="C217" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="E217" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G217" s="16" t="s">
+      <c r="G217" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA217" s="8" t="s">
+      <c r="AA217" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="218">
-      <c r="C218" s="8" t="s">
+    <row r="218" spans="3:27">
+      <c r="C218" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G218" s="16" t="s">
+      <c r="G218" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="219">
-      <c r="C219" s="8" t="s">
+    <row r="219" spans="3:27">
+      <c r="C219" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G219" s="16" t="s">
+      <c r="G219" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="220">
-      <c r="C220" s="8" t="s">
+    <row r="220" spans="3:27">
+      <c r="C220" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G220" s="16" t="s">
+      <c r="G220" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M220" s="11">
+      <c r="M220" s="9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="221">
-      <c r="C221" s="8" t="s">
+    <row r="221" spans="3:27">
+      <c r="C221" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E221" s="8" t="s">
+      <c r="E221" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G221" s="16" t="s">
+      <c r="G221" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H221" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="K221" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="L221" s="11">
+      <c r="H221" s="6">
+        <v>8</v>
+      </c>
+      <c r="K221" s="6">
+        <v>3</v>
+      </c>
+      <c r="L221" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA221" s="8" t="s">
+      <c r="AA221" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="222">
-      <c r="C222" s="8" t="s">
+    <row r="222" spans="3:27">
+      <c r="C222" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G222" s="16" t="s">
+      <c r="G222" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O222" s="11">
+      <c r="O222" s="9">
         <v>0.25</v>
       </c>
-      <c r="Q222" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="C223" s="8" t="s">
+      <c r="Q222" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="3:27">
+      <c r="C223" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D223" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G223" s="16" t="s">
+      <c r="G223" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L223" s="11"/>
-      <c r="M223" s="11">
+      <c r="L223" s="9"/>
+      <c r="M223" s="9">
         <v>0.1</v>
       </c>
-      <c r="P223" s="11">
+      <c r="P223" s="9">
         <v>0.25</v>
       </c>
-      <c r="Q223" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="C224" s="8" t="s">
+      <c r="Q223" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="3:27">
+      <c r="C224" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="E224" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G224" s="16" t="s">
+      <c r="G224" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M224" s="11">
+      <c r="M224" s="9">
         <v>0.05</v>
       </c>
-      <c r="AA224" s="8" t="s">
+      <c r="AA224" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="225">
-      <c r="C225" s="8" t="s">
+    <row r="225" spans="3:27">
+      <c r="C225" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G225" s="16" t="s">
+      <c r="G225" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H225" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="K225" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L225" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="C226" s="8" t="s">
+      <c r="H225" s="6">
+        <v>25</v>
+      </c>
+      <c r="K225" s="6">
+        <v>0</v>
+      </c>
+      <c r="L225" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="3:27">
+      <c r="C226" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E226" s="8" t="s">
+      <c r="E226" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G226" s="16" t="s">
+      <c r="G226" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J226" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="K226" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L226" s="11">
+      <c r="J226" s="6">
+        <v>30</v>
+      </c>
+      <c r="K226" s="6">
+        <v>2</v>
+      </c>
+      <c r="L226" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA226" s="8" t="s">
+      <c r="AA226" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="227">
-      <c r="C227" s="8" t="s">
+    <row r="227" spans="3:27">
+      <c r="C227" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G227" s="16" t="s">
+      <c r="G227" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J227" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="K227" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L227" s="11">
+      <c r="J227" s="6">
+        <v>100</v>
+      </c>
+      <c r="K227" s="6">
+        <v>2</v>
+      </c>
+      <c r="L227" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="228">
-      <c r="C228" s="8" t="s">
+    <row r="228" spans="3:27">
+      <c r="C228" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G228" s="16" t="s">
+      <c r="G228" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R228" s="8">
-        <v>-5.0</v>
-      </c>
-      <c r="Y228" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="AA228" s="8" t="s">
+      <c r="R228" s="6">
+        <v>-5</v>
+      </c>
+      <c r="Y228" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA228" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="229">
-      <c r="C229" s="8" t="s">
+    <row r="229" spans="3:27">
+      <c r="C229" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D229" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G229" s="16" t="s">
+      <c r="G229" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J229" s="8">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="C230" s="8" t="s">
+      <c r="J229" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="3:27">
+      <c r="C230" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E230" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G230" s="16" t="s">
+      <c r="G230" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P230" s="11">
+      <c r="P230" s="9">
         <v>0.25</v>
       </c>
-      <c r="Q230" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="AA230" s="8" t="s">
+      <c r="Q230" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA230" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="231">
-      <c r="C231" s="8" t="s">
+    <row r="231" spans="3:27">
+      <c r="C231" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E231" s="8" t="s">
+      <c r="E231" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G231" s="16" t="s">
+      <c r="G231" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J231" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="C232" s="8" t="s">
+      <c r="J231" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="3:27">
+      <c r="C232" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G232" s="16" t="s">
+      <c r="G232" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q232" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="AA232" s="8" t="s">
+      <c r="Q232" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA232" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="233">
-      <c r="G233" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="G234" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="G235" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="G236" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="G237" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="G238" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="G239" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="G240" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="G241" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="G242" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="G243" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="G244" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="G245" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="G246" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="G247" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="G248" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="G249" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="G250" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="G251" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="G252" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="G253" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="G254" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="G255" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="G256" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="G257" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="G258" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="G259" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="G260" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="G261" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="G262" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="G263" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="G264" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="G265" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="G266" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="G267" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="G268" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="G269" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="G270" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="G271" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="G272" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="G273" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="G274" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="G275" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="G276" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="G277" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="G278" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="G279" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="G280" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="G281" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="G282" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="G283" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="G284" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="G285" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="G286" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="G287" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="G288" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="G289" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="G290" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="G291" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="G292" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="G293" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="G294" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="G295" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="G296" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="G297" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="G298" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="C299" s="5" t="s">
+    <row r="233" spans="3:27">
+      <c r="G233" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="3:27">
+      <c r="G234" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="3:27">
+      <c r="G235" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="3:27">
+      <c r="G236" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="3:27">
+      <c r="G237" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="3:27">
+      <c r="G238" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="3:27">
+      <c r="G239" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="3:27">
+      <c r="G240" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7">
+      <c r="G241" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7">
+      <c r="G242" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7">
+      <c r="G243" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7">
+      <c r="G244" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="7:7">
+      <c r="G245" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="7:7">
+      <c r="G246" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="7:7">
+      <c r="G247" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248" spans="7:7">
+      <c r="G248" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="7:7">
+      <c r="G249" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="7:7">
+      <c r="G250" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="7:7">
+      <c r="G251" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="7:7">
+      <c r="G252" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="7:7">
+      <c r="G253" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="7:7">
+      <c r="G254" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="7:7">
+      <c r="G255" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="7:7">
+      <c r="G256" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7">
+      <c r="G257" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7">
+      <c r="G258" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7">
+      <c r="G259" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="7:7">
+      <c r="G260" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="7:7">
+      <c r="G261" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="7:7">
+      <c r="G262" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="7:7">
+      <c r="G263" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="7:7">
+      <c r="G264" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="7:7">
+      <c r="G265" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="7:7">
+      <c r="G266" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="7:7">
+      <c r="G267" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="7:7">
+      <c r="G268" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="7:7">
+      <c r="G269" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="7:7">
+      <c r="G270" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="7:7">
+      <c r="G272" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="7:7">
+      <c r="G274" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="7:7">
+      <c r="G275" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="7:7">
+      <c r="G277" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="7:7">
+      <c r="G278" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="7:7">
+      <c r="G279" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="7:7">
+      <c r="G281" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="7:7">
+      <c r="G282" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="7:7">
+      <c r="G283" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="7:7">
+      <c r="G284" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="7:7">
+      <c r="G285" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="7:7">
+      <c r="G286" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="7:7">
+      <c r="G287" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="7:7">
+      <c r="G288" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="2:28">
+      <c r="G289" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="2:28">
+      <c r="G290" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="2:28">
+      <c r="G291" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" spans="2:28">
+      <c r="G292" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="2:28">
+      <c r="G293" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" spans="2:28">
+      <c r="G294" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" spans="2:28">
+      <c r="G295" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" spans="2:28">
+      <c r="G296" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="2:28">
+      <c r="G297" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298" spans="2:28">
+      <c r="G298" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="2:28">
+      <c r="C299" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D299" s="5" t="s">
+      <c r="D299" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E299" s="5" t="s">
+      <c r="E299" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F299" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G299" s="5" t="s">
+      <c r="G299" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H299" s="5" t="s">
+      <c r="H299" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I299" s="5" t="s">
+      <c r="I299" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J299" s="5" t="s">
+      <c r="J299" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K299" s="5" t="s">
+      <c r="K299" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L299" s="6" t="s">
+      <c r="L299" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M299" s="6" t="s">
+      <c r="M299" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N299" s="6" t="s">
+      <c r="N299" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O299" s="5" t="s">
+      <c r="O299" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P299" s="6" t="s">
+      <c r="P299" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q299" s="5" t="s">
+      <c r="Q299" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R299" s="5" t="s">
+      <c r="R299" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S299" s="5" t="s">
+      <c r="S299" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T299" s="5" t="s">
+      <c r="T299" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U299" s="5" t="s">
+      <c r="U299" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V299" s="5" t="s">
+      <c r="V299" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W299" s="5" t="s">
+      <c r="W299" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X299" s="5" t="s">
+      <c r="X299" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y299" s="5" t="s">
+      <c r="Y299" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z299" s="5" t="s">
+      <c r="Z299" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA299" s="5" t="s">
+      <c r="AA299" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB299" s="5" t="s">
+      <c r="AB299" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="300">
-      <c r="B300" s="9" t="s">
+    <row r="300" spans="2:28">
+      <c r="B300" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D300" s="8" t="s">
+      <c r="D300" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E300" s="8" t="s">
+      <c r="E300" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G300" s="16" t="s">
+      <c r="G300" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H300" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="K300" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L300" s="11">
+      <c r="H300" s="6">
+        <v>60</v>
+      </c>
+      <c r="K300" s="6">
+        <v>1</v>
+      </c>
+      <c r="L300" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="301">
-      <c r="C301" s="8" t="s">
+    <row r="301" spans="2:28">
+      <c r="C301" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D301" s="8" t="s">
+      <c r="D301" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E301" s="8" t="s">
+      <c r="E301" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G301" s="16" t="s">
+      <c r="G301" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q301" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="AA301" s="8" t="s">
+      <c r="Q301" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA301" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="302">
-      <c r="C302" s="8" t="s">
+    <row r="302" spans="2:28">
+      <c r="C302" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D302" s="8" t="s">
+      <c r="D302" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E302" s="8" t="s">
+      <c r="E302" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G302" s="16" t="s">
+      <c r="G302" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R302" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="Y302" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="C303" s="8" t="s">
+      <c r="R302" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y302" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="2:28">
+      <c r="C303" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D303" s="8" t="s">
+      <c r="D303" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E303" s="8" t="s">
+      <c r="E303" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G303" s="16" t="s">
+      <c r="G303" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H303" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="U303" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="AA303" s="8" t="s">
+      <c r="H303" s="6">
+        <v>30</v>
+      </c>
+      <c r="U303" s="6">
+        <v>10</v>
+      </c>
+      <c r="AA303" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="304">
-      <c r="C304" s="8" t="s">
+    <row r="304" spans="2:28">
+      <c r="C304" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D304" s="8" t="s">
+      <c r="D304" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E304" s="8" t="s">
+      <c r="E304" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G304" s="16" t="s">
+      <c r="G304" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="305">
-      <c r="C305" s="8" t="s">
+    <row r="305" spans="3:7">
+      <c r="C305" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D305" s="8" t="s">
+      <c r="D305" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E305" s="8" t="s">
+      <c r="E305" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G305" s="16" t="s">
+      <c r="G305" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="306">
-      <c r="C306" s="8" t="s">
+    <row r="306" spans="3:7">
+      <c r="C306" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D306" s="8" t="s">
+      <c r="D306" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E306" s="8" t="s">
+      <c r="E306" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G306" s="16" t="s">
+      <c r="G306" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="307">
-      <c r="C307" s="8" t="s">
+    <row r="307" spans="3:7">
+      <c r="C307" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D307" s="8" t="s">
+      <c r="D307" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G307" s="16" t="s">
+      <c r="G307" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="308">
-      <c r="C308" s="8" t="s">
+    <row r="308" spans="3:7">
+      <c r="C308" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D308" s="8" t="s">
+      <c r="D308" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E308" s="8" t="s">
+      <c r="E308" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G308" s="16" t="s">
+      <c r="G308" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="309">
-      <c r="C309" s="8" t="s">
+    <row r="309" spans="3:7">
+      <c r="C309" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D309" s="8" t="s">
+      <c r="D309" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E309" s="8" t="s">
+      <c r="E309" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G309" s="16" t="s">
+      <c r="G309" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="310">
-      <c r="C310" s="8" t="s">
+    <row r="310" spans="3:7">
+      <c r="C310" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D310" s="8" t="s">
+      <c r="D310" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E310" s="8" t="s">
+      <c r="E310" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G310" s="16" t="s">
+      <c r="G310" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="311">
-      <c r="C311" s="8" t="s">
+    <row r="311" spans="3:7">
+      <c r="C311" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D311" s="8" t="s">
+      <c r="D311" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="E311" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G311" s="16" t="s">
+      <c r="G311" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="312">
-      <c r="C312" s="8" t="s">
+    <row r="312" spans="3:7">
+      <c r="C312" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D312" s="8" t="s">
+      <c r="D312" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E312" s="8" t="s">
+      <c r="E312" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G312" s="16" t="s">
+      <c r="G312" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="313">
-      <c r="C313" s="8" t="s">
+    <row r="313" spans="3:7">
+      <c r="C313" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D313" s="8" t="s">
+      <c r="D313" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E313" s="8" t="s">
+      <c r="E313" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G313" s="16" t="s">
+      <c r="G313" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="314">
-      <c r="C314" s="8" t="s">
+    <row r="314" spans="3:7">
+      <c r="C314" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D314" s="8" t="s">
+      <c r="D314" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="E314" s="8" t="s">
+      <c r="E314" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G314" s="16" t="s">
+      <c r="G314" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="315">
-      <c r="C315" s="8" t="s">
+    <row r="315" spans="3:7">
+      <c r="C315" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D315" s="8" t="s">
+      <c r="D315" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E315" s="8" t="s">
+      <c r="E315" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G315" s="16" t="s">
+      <c r="G315" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="316">
-      <c r="C316" s="8" t="s">
+    <row r="316" spans="3:7">
+      <c r="C316" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D316" s="8" t="s">
+      <c r="D316" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E316" s="8" t="s">
+      <c r="E316" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G316" s="16" t="s">
+      <c r="G316" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="317">
-      <c r="C317" s="8" t="s">
+    <row r="317" spans="3:7">
+      <c r="C317" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D317" s="8" t="s">
+      <c r="D317" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G317" s="16" t="s">
+      <c r="G317" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="318">
-      <c r="C318" s="8" t="s">
+    <row r="318" spans="3:7">
+      <c r="C318" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D318" s="8" t="s">
+      <c r="D318" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="E318" s="8" t="s">
+      <c r="E318" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G318" s="16" t="s">
+      <c r="G318" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="319">
-      <c r="C319" s="8" t="s">
+    <row r="319" spans="3:7">
+      <c r="C319" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D319" s="8" t="s">
+      <c r="D319" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E319" s="8" t="s">
+      <c r="E319" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G319" s="16" t="s">
+      <c r="G319" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="320">
-      <c r="C320" s="8" t="s">
+    <row r="320" spans="3:7">
+      <c r="C320" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D320" s="8" t="s">
+      <c r="D320" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="E320" s="8" t="s">
+      <c r="E320" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G320" s="16" t="s">
+      <c r="G320" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="321">
-      <c r="C321" s="8" t="s">
+    <row r="321" spans="3:10">
+      <c r="C321" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D321" s="8" t="s">
+      <c r="D321" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E321" s="8" t="s">
+      <c r="E321" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G321" s="16" t="s">
+      <c r="G321" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="322">
-      <c r="C322" s="8" t="s">
+    <row r="322" spans="3:10">
+      <c r="C322" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D322" s="8" t="s">
+      <c r="D322" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E322" s="8" t="s">
+      <c r="E322" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G322" s="16" t="s">
+      <c r="G322" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J322" s="8">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="C323" s="8" t="s">
+      <c r="J322" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="323" spans="3:10">
+      <c r="C323" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="8" t="s">
+      <c r="D323" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G323" s="16" t="s">
+      <c r="G323" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="324">
-      <c r="C324" s="8" t="s">
+    <row r="324" spans="3:10">
+      <c r="C324" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D324" s="8" t="s">
+      <c r="D324" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E324" s="8" t="s">
+      <c r="E324" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G324" s="16" t="s">
+      <c r="G324" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="325">
-      <c r="C325" s="8" t="s">
+    <row r="325" spans="3:10">
+      <c r="C325" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D325" s="8" t="s">
+      <c r="D325" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E325" s="8" t="s">
+      <c r="E325" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G325" s="16" t="s">
+      <c r="G325" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="326">
-      <c r="C326" s="8" t="s">
+    <row r="326" spans="3:10">
+      <c r="C326" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D326" s="8" t="s">
+      <c r="D326" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E326" s="8" t="s">
+      <c r="E326" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G326" s="16" t="s">
+      <c r="G326" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="327">
-      <c r="C327" s="8" t="s">
+    <row r="327" spans="3:10">
+      <c r="C327" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D327" s="8" t="s">
+      <c r="D327" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E327" s="8" t="s">
+      <c r="E327" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G327" s="16" t="s">
+      <c r="G327" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="328">
-      <c r="G328" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="G329" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="G330" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="G331" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="G332" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="G333" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="G334" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="G335" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="G336" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="G337" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="G338" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="G339" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="G340" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="G341" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="G342" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="G343" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="G344" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="G345" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="G346" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="G347" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="G348" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="G349" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="G350" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="G351" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="G352" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="G353" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="G354" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="G355" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="G356" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="G357" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="G358" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="G359" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="G360" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="G361" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="G362" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="G363" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="G364" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="G365" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="G366" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="G367" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="G368" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="G369" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="G370" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="G371" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="G372" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="G373" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="G374" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="G375" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="G376" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="G377" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="G378" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="G379" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="G380" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="G381" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="G382" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="G383" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="G384" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="G385" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="G386" s="16" t="s">
+    <row r="328" spans="3:10">
+      <c r="G328" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="3:10">
+      <c r="G329" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="3:10">
+      <c r="G330" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="331" spans="3:10">
+      <c r="G331" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="3:10">
+      <c r="G332" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="333" spans="3:10">
+      <c r="G333" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="3:10">
+      <c r="G334" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="335" spans="3:10">
+      <c r="G335" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="336" spans="3:10">
+      <c r="G336" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="337" spans="7:7">
+      <c r="G337" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="338" spans="7:7">
+      <c r="G338" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="339" spans="7:7">
+      <c r="G339" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="340" spans="7:7">
+      <c r="G340" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" spans="7:7">
+      <c r="G341" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="342" spans="7:7">
+      <c r="G342" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="343" spans="7:7">
+      <c r="G343" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="344" spans="7:7">
+      <c r="G344" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="345" spans="7:7">
+      <c r="G345" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="346" spans="7:7">
+      <c r="G346" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="347" spans="7:7">
+      <c r="G347" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="348" spans="7:7">
+      <c r="G348" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="7:7">
+      <c r="G349" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="7:7">
+      <c r="G350" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="351" spans="7:7">
+      <c r="G351" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="352" spans="7:7">
+      <c r="G352" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="353" spans="7:7">
+      <c r="G353" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="354" spans="7:7">
+      <c r="G354" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="7:7">
+      <c r="G355" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" spans="7:7">
+      <c r="G356" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="357" spans="7:7">
+      <c r="G357" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="358" spans="7:7">
+      <c r="G358" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="359" spans="7:7">
+      <c r="G359" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="360" spans="7:7">
+      <c r="G360" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="7:7">
+      <c r="G361" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="362" spans="7:7">
+      <c r="G362" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="363" spans="7:7">
+      <c r="G363" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="7:7">
+      <c r="G364" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="365" spans="7:7">
+      <c r="G365" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="366" spans="7:7">
+      <c r="G366" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="367" spans="7:7">
+      <c r="G367" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368" spans="7:7">
+      <c r="G368" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="7:7">
+      <c r="G369" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370" spans="7:7">
+      <c r="G370" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="371" spans="7:7">
+      <c r="G371" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="372" spans="7:7">
+      <c r="G372" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="373" spans="7:7">
+      <c r="G373" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="374" spans="7:7">
+      <c r="G374" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="375" spans="7:7">
+      <c r="G375" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="7:7">
+      <c r="G376" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="377" spans="7:7">
+      <c r="G377" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="378" spans="7:7">
+      <c r="G378" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="7:7">
+      <c r="G379" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" spans="7:7">
+      <c r="G380" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="381" spans="7:7">
+      <c r="G381" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="382" spans="7:7">
+      <c r="G382" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="7:7">
+      <c r="G383" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="7:7">
+      <c r="G384" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385" spans="7:7">
+      <c r="G385" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="7:7">
+      <c r="G386" s="14" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1003 F103">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Knight"</formula>
@@ -7072,63 +7665,67 @@
       <formula>"All"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G43 G45:G102 G104:G193 G195:G298 G300:G386">
       <formula1>"Knight,Archer,Magician,Rogue,Reaper,All"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63000000" defaultRowHeight="15.750000" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
+++ b/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE386"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63000000" defaultRowHeight="15.750000" customHeight="1"/>

--- a/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
+++ b/VampireSurvivalLike/Assets/06 Excels/TBG_Sheet 250224.xlsx
@@ -2539,7 +2539,7 @@
   <dimension ref="A1:AE386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63000000" defaultRowHeight="15.750000" customHeight="1"/>
